--- a/data/trans_orig/Q02D_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R-Dificultad-trans_orig.xlsx
@@ -666,10 +666,10 @@
         <v>5.983531505996901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.053992525835785</v>
+        <v>7.053992525835786</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.436200806719049</v>
+        <v>4.436200806719048</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>6.678806277141149</v>
@@ -678,16 +678,16 @@
         <v>7.508622877519065</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>8.619761955618984</v>
+        <v>8.619761955618985</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>8.066840883047517</v>
+        <v>8.066840883047513</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>6.211359674872989</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6.918300537408393</v>
+        <v>6.918300537408392</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>8.007759921730942</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.849535459735751</v>
+        <v>3.759191843706494</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.547751420484924</v>
+        <v>5.588220852822435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.320568131249864</v>
+        <v>6.341687729546353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.642127562253435</v>
+        <v>3.57740356763905</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.988265400878268</v>
+        <v>5.963106179896271</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.159566285998477</v>
+        <v>7.112661016693546</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.032276738785209</v>
+        <v>8.04609733666002</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.096864194610105</v>
+        <v>7.107903697029104</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.646820100472891</v>
+        <v>5.610527305739666</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.631448047195329</v>
+        <v>6.659934491101962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.534155998483402</v>
+        <v>7.534714607726137</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.167781239082351</v>
+        <v>6.165993841474323</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.612250654198107</v>
+        <v>5.656872852206688</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.397113954164229</v>
+        <v>6.384049969106141</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.845033407900186</v>
+        <v>7.857012075027978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.393758628882649</v>
+        <v>5.3372823432506</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.439834726486514</v>
+        <v>7.483918470481298</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.877717097492358</v>
+        <v>7.901802976033534</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.315481379836401</v>
+        <v>9.288247571483156</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.180600645279542</v>
+        <v>9.318501818927423</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.837389680872862</v>
+        <v>6.833796346162012</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.206279850708974</v>
+        <v>7.219210806685435</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8.525136895485293</v>
+        <v>8.455558033289901</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.013875953315871</v>
+        <v>7.974556389324478</v>
       </c>
     </row>
     <row r="7">
@@ -811,13 +811,13 @@
         <v>6.226294674793129</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>6.554185542784476</v>
+        <v>6.554185542784474</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>9.124514214986299</v>
+        <v>9.1245142149863</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>6.749913076846165</v>
+        <v>6.749913076846164</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>5.388312167205798</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.527265344326122</v>
+        <v>3.54263814255465</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.909393632559341</v>
+        <v>3.949820373028844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.417881838625766</v>
+        <v>6.33950678753524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.878458569700975</v>
+        <v>4.902074912852517</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.632815689496527</v>
+        <v>5.589170235174332</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.177446768959763</v>
+        <v>6.189977403343796</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.434008878530157</v>
+        <v>8.409355592162468</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.122151448046053</v>
+        <v>6.131686479972061</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.935179434935049</v>
+        <v>4.961299877287148</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.435497440245192</v>
+        <v>5.460403182779086</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.917545777161013</v>
+        <v>7.830009428954685</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.761361752474437</v>
+        <v>5.838579482256957</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.786382488097127</v>
+        <v>4.809742432715308</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.755924065043193</v>
+        <v>4.80690651138169</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.063303998928703</v>
+        <v>7.954898341349473</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.210120098564093</v>
+        <v>7.323138359010516</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.969756964142949</v>
+        <v>6.881659505718832</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.940659365116781</v>
+        <v>6.929342405193465</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.900013117383006</v>
+        <v>9.908498455542412</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.540248022714896</v>
+        <v>7.547292624977969</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.859527085211921</v>
+        <v>5.89515817345351</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.019499332919112</v>
+        <v>6.035406178619411</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9.024264562358027</v>
+        <v>8.944554567158656</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>6.970445891548732</v>
+        <v>7.115173698535069</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>6.387689512451106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.194227850292072</v>
+        <v>6.194227850292075</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>5.678022536088293</v>
@@ -950,10 +950,10 @@
         <v>5.859601802851349</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>9.359240574533111</v>
+        <v>9.359240574533112</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>8.225653855611014</v>
+        <v>8.225653855611011</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>4.667457371548645</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.033872314152604</v>
+        <v>3.025667129770255</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.89753955839199</v>
+        <v>3.862650729910625</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.704410895423333</v>
+        <v>5.708404695142859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.156497463263598</v>
+        <v>4.970024833054389</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.08657397829288</v>
+        <v>5.161263739994768</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.505447871669481</v>
+        <v>5.4951578499182</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.543358604938158</v>
+        <v>8.492354464533737</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.126738485348516</v>
+        <v>7.252498650645597</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.266078238474325</v>
+        <v>4.263936147444212</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4.919832008915737</v>
+        <v>4.952427333400715</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.30789954828036</v>
+        <v>7.364479904392385</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.709509507273175</v>
+        <v>6.713091684977623</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.100470353340508</v>
+        <v>4.06801306139442</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.723902295884233</v>
+        <v>4.684072519041353</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.241608511540886</v>
+        <v>7.149389753414942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.796162909601576</v>
+        <v>7.78181043733629</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.3251254254905</v>
+        <v>6.354429210597652</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.259409942321458</v>
+        <v>6.293704809566679</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.36836412908461</v>
+        <v>10.28967902409177</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.387551827410819</v>
+        <v>9.58445015974317</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.082293544423507</v>
+        <v>5.116973146512448</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5.526439370722859</v>
+        <v>5.54772778012661</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8.543468791489534</v>
+        <v>8.584137306034091</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>8.446716132526825</v>
+        <v>8.507011982610305</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>4.366874722201448</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.67116633979777</v>
+        <v>4.671166339797769</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7.146880992980287</v>
@@ -1080,10 +1080,10 @@
         <v>10.36881431352715</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>6.273331208766032</v>
+        <v>6.273331208766031</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>6.890281757055995</v>
+        <v>6.890281757055996</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>9.131010499244478</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.492486168373732</v>
+        <v>3.5627395741185</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.101738892765483</v>
+        <v>4.049841438869211</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.067829729645057</v>
+        <v>6.125368489774409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.40790359536259</v>
+        <v>7.413426368104701</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.356480224274352</v>
+        <v>5.354451067187687</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.300157029543564</v>
+        <v>6.325987074446739</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.290766732558369</v>
+        <v>8.332303126287556</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>9.941924434665482</v>
+        <v>9.970827301482087</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.7058046232733</v>
+        <v>4.743426061438729</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.464303101729101</v>
+        <v>5.42000019183967</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.753558595221404</v>
+        <v>7.717514672425024</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>9.505841715082539</v>
+        <v>9.417435315640908</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.69841006032544</v>
+        <v>5.951740889111997</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.312493259173146</v>
+        <v>5.285280399444806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.400086629857798</v>
+        <v>8.44458211453686</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.43309173842077</v>
+        <v>15.62116722533452</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.599756678243751</v>
+        <v>7.374288338944976</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.499867204773559</v>
+        <v>7.590860197889335</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.15645718505694</v>
+        <v>10.05151977111444</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>15.4817588077145</v>
+        <v>15.17653350659563</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>6.320232878178738</v>
+        <v>6.398110023070394</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.385416827644619</v>
+        <v>6.407907451541369</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9.149314035372788</v>
+        <v>9.261446343783257</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>14.0676963617563</v>
+        <v>14.1048781235842</v>
       </c>
     </row>
     <row r="16">
@@ -1210,7 +1210,7 @@
         <v>4.912352641868962</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.912468854849124</v>
+        <v>6.912468854849123</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6.136569914542667</v>
@@ -1225,7 +1225,7 @@
         <v>8.963795164173282</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>7.930097976943477</v>
+        <v>7.93009797694348</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>5.328676655760736</v>
@@ -1234,7 +1234,7 @@
         <v>6.032333600513256</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8.138024677066488</v>
+        <v>8.13802467706649</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>7.244286021122177</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.647459603270794</v>
+        <v>3.672630497353649</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.676715734401856</v>
+        <v>4.69771198887463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.509684255803954</v>
+        <v>6.500500032783001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.497634883101365</v>
+        <v>5.434826932703897</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.84976411055619</v>
+        <v>5.855523841930529</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.550179115402949</v>
+        <v>6.543187145796654</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.570517287465474</v>
+        <v>8.579592824786456</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.347813429173589</v>
+        <v>7.380504150069722</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.061930619263572</v>
+        <v>5.076784623171453</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.871338289395323</v>
+        <v>5.871430812077945</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.858396793034787</v>
+        <v>7.865625366938993</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.739895447038279</v>
+        <v>6.798106641846479</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.334171393466429</v>
+        <v>4.318461348197092</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.149205986864325</v>
+        <v>5.172569855462619</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.366375358670127</v>
+        <v>7.334238638403029</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.015123261330483</v>
+        <v>7.015620344490151</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.56542855035204</v>
+        <v>6.595397371881432</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.986048848454865</v>
+        <v>6.98243041399679</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.356572253866045</v>
+        <v>9.348996068751532</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.523923552788748</v>
+        <v>8.587694828535996</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.617077367940047</v>
+        <v>5.608855514130128</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.19422564171329</v>
+        <v>6.199094427819706</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8.42542285269352</v>
+        <v>8.459900670350798</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.709904503175761</v>
+        <v>7.776249267272196</v>
       </c>
     </row>
     <row r="19">
